--- a/data/trans_orig/P14A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF607DCB-FEDB-4F82-8E95-910EB276143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB9E94B-9298-4978-90AC-6E60BC89C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CF9E39F-EE80-4525-885D-233F85B64BD4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FA0A595-7690-41D1-842C-C72DC20AD688}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>48,18%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>73,43%</t>
@@ -117,19 +117,19 @@
     <t>56,64%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>51,82%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>26,57%</t>
@@ -141,10 +141,10 @@
     <t>43,36%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -153,55 +153,55 @@
     <t>59,81%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -210,55 +210,55 @@
     <t>86,27%</t>
   </si>
   <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -267,49 +267,43 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>91,57%</t>
+    <t>90,51%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>8,43%</t>
+    <t>9,49%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -318,109 +312,109 @@
     <t>94,08%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -438,313 +432,319 @@
     <t>34,62%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>58,13%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>41,87%</t>
   </si>
   <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>85,81%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>8,14%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>97,31%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,59%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>87,46%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>18,41%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,54%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30608844-B858-479D-8725-6E39AF1A6E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54734D5-8ECC-4DB1-A413-E9F34ABE4C73}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,13 +1924,13 @@
         <v>179833</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1945,13 @@
         <v>2232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -1960,13 +1960,13 @@
         <v>16634</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1975,13 +1975,13 @@
         <v>18866</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2049,13 +2049,13 @@
         <v>181567</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>234</v>
@@ -2064,13 +2064,13 @@
         <v>251503</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>397</v>
@@ -2079,13 +2079,13 @@
         <v>433069</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2100,13 @@
         <v>11421</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2115,13 +2115,13 @@
         <v>8942</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2130,13 +2130,13 @@
         <v>20364</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2204,13 @@
         <v>342220</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>399</v>
@@ -2219,13 +2219,13 @@
         <v>434611</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>706</v>
@@ -2234,13 +2234,13 @@
         <v>776831</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2255,13 @@
         <v>45403</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -2270,13 +2270,13 @@
         <v>54304</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -2285,13 +2285,13 @@
         <v>99707</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A010F14-3CD1-4E03-8A1D-78A35681943F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0030A4B3-BEC8-4C0C-8CA3-3FFF9767CF5E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +2386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2562,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2648,13 +2648,13 @@
         <v>4315</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2663,13 +2663,13 @@
         <v>2947</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2678,13 +2678,13 @@
         <v>7262</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2699,13 @@
         <v>8148</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2714,13 +2714,13 @@
         <v>5712</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2729,13 +2729,13 @@
         <v>13860</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2803,13 @@
         <v>20760</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2818,13 +2818,13 @@
         <v>7337</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2833,13 +2833,13 @@
         <v>28098</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2854,13 @@
         <v>9751</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2869,13 +2869,13 @@
         <v>10489</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -2884,13 +2884,13 @@
         <v>20240</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2958,13 @@
         <v>54412</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -2973,13 +2973,13 @@
         <v>52319</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -2988,13 +2988,13 @@
         <v>106731</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3009,13 @@
         <v>10513</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>16740</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3039,13 +3039,13 @@
         <v>27253</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3113,13 @@
         <v>79055</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3128,13 +3128,13 @@
         <v>99898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3143,13 +3143,13 @@
         <v>178952</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3164,13 @@
         <v>15772</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3179,13 +3179,13 @@
         <v>19565</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3194,13 +3194,13 @@
         <v>35337</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3268,13 @@
         <v>174983</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>196</v>
@@ -3283,13 +3283,13 @@
         <v>232186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>385</v>
@@ -3298,13 +3298,13 @@
         <v>407169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3319,13 @@
         <v>10033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -3334,13 +3334,13 @@
         <v>21255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3349,13 +3349,13 @@
         <v>31288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3423,13 @@
         <v>333525</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -3438,13 +3438,13 @@
         <v>394687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>677</v>
@@ -3453,13 +3453,13 @@
         <v>728212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3474,13 @@
         <v>55273</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -3489,13 +3489,13 @@
         <v>74651</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>115</v>
@@ -3504,13 +3504,13 @@
         <v>129924</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3566,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB9E94B-9298-4978-90AC-6E60BC89C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D47DA7-5B0C-43CE-880F-C22196F76523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FA0A595-7690-41D1-842C-C72DC20AD688}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{092EA3B9-8E41-407C-9371-179371035A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,49 +102,49 @@
     <t>48,18%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>34,33%</t>
+    <t>29,09%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>51,82%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>65,67%</t>
+    <t>70,91%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -153,55 +153,55 @@
     <t>59,81%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -210,55 +210,55 @@
     <t>86,27%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -267,43 +267,49 @@
     <t>97,32%</t>
   </si>
   <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -312,115 +318,115 @@
     <t>94,08%</t>
   </si>
   <si>
-    <t>88,59%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
     <t>5,92%</t>
   </si>
   <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por colesterol alto en 2015 (Tasa respuesta: 12,06%)</t>
+    <t>Población que recibe medicación o terapia por colesterol alto en 2016 (Tasa respuesta: 12,06%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -432,241 +438,232 @@
     <t>34,62%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>68,22%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>31,78%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>58,13%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>41,87%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>64,32%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>35,68%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
+    <t>90,99%</t>
+  </si>
+  <si>
     <t>97,31%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>5,42%</t>
@@ -675,76 +672,79 @@
     <t>2,69%</t>
   </si>
   <si>
+    <t>9,01%</t>
+  </si>
+  <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54734D5-8ECC-4DB1-A413-E9F34ABE4C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F2FC0E-C45A-4616-9EC4-15869B099155}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,13 +1924,13 @@
         <v>179833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1945,13 @@
         <v>2232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -1960,13 +1960,13 @@
         <v>16634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1975,13 +1975,13 @@
         <v>18866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2049,13 +2049,13 @@
         <v>181567</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>234</v>
@@ -2064,13 +2064,13 @@
         <v>251503</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>397</v>
@@ -2079,13 +2079,13 @@
         <v>433069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2100,13 @@
         <v>11421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2115,13 +2115,13 @@
         <v>8942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2130,13 +2130,13 @@
         <v>20364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2204,13 @@
         <v>342220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>399</v>
@@ -2219,13 +2219,13 @@
         <v>434611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>706</v>
@@ -2234,13 +2234,13 @@
         <v>776831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2255,13 @@
         <v>45403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -2270,13 +2270,13 @@
         <v>54304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -2285,13 +2285,13 @@
         <v>99707</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0030A4B3-BEC8-4C0C-8CA3-3FFF9767CF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168AD32F-4899-43FB-88FA-C382F607E6A0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +2386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2562,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2648,13 +2648,13 @@
         <v>4315</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2663,13 +2663,13 @@
         <v>2947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2678,13 +2678,13 @@
         <v>7262</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2699,13 @@
         <v>8148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2714,13 +2714,13 @@
         <v>5712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2979,7 +2979,7 @@
         <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -2988,13 +2988,13 @@
         <v>106731</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3009,13 @@
         <v>10513</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>16740</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3039,13 +3039,13 @@
         <v>27253</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3113,13 @@
         <v>79055</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3128,13 +3128,13 @@
         <v>99898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3143,13 +3143,13 @@
         <v>178952</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3164,13 @@
         <v>15772</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3179,13 +3179,13 @@
         <v>19565</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3194,13 +3194,13 @@
         <v>35337</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3268,13 @@
         <v>174983</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>196</v>
@@ -3283,13 +3283,13 @@
         <v>232186</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>385</v>
@@ -3298,13 +3298,13 @@
         <v>407169</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3319,13 @@
         <v>10033</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
